--- a/nginx/html/app/segreteriacampo/plugins/segreteria-campo/tables/xls/it/60_Volontari.xlsx
+++ b/nginx/html/app/segreteriacampo/plugins/segreteria-campo/tables/xls/it/60_Volontari.xlsx
@@ -21,6 +21,9 @@
     <t>ORGANIZZAZIONE</t>
   </si>
   <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
     <t>COGNOME</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t>NUM. GG. BEN. LEGGE</t>
-  </si>
-  <si>
-    <t>PROVINCIA</t>
   </si>
   <si>
     <t>CODICE ORGANIZZAZIONE</t>
@@ -809,40 +809,40 @@
         <v>3</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
       </c>
       <c r="J2">
         <v>9</v>
       </c>
       <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>24</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>25</v>
-      </c>
-      <c r="P2">
-        <v>28</v>
       </c>
       <c r="Q2">
         <v>29</v>
@@ -895,10 +895,10 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -910,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
         <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
       </c>
       <c r="O3" t="s">
         <v>13</v>
@@ -966,19 +966,19 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>54</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
       </c>
       <c r="K4" t="s">
         <v>54</v>
@@ -993,10 +993,10 @@
         <v>54</v>
       </c>
       <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
         <v>66</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
       </c>
       <c r="Q4" t="s">
         <v>48</v>
@@ -1034,17 +1034,15 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5"/>
+      <c r="G5" t="s">
         <v>55</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
+      <c r="H5"/>
+      <c r="I5" t="s">
         <v>58</v>
       </c>
-      <c r="I5"/>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
+      <c r="J5"/>
       <c r="K5" t="s">
         <v>62</v>
       </c>
@@ -1057,7 +1055,9 @@
       <c r="N5" t="s">
         <v>62</v>
       </c>
-      <c r="O5"/>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1092,10 +1092,10 @@
         <v>255</v>
       </c>
       <c r="H6">
+        <v>255</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>255</v>
       </c>
       <c r="J6">
         <v>255</v>
@@ -1160,7 +1160,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1193,7 +1193,7 @@
         <v>50</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
         <v>50</v>
@@ -1232,21 +1232,21 @@
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8" t="s">
+      <c r="G8"/>
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" t="s">
+      <c r="N8"/>
+      <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="s">
@@ -1427,9 +1427,7 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11"/>
       <c r="D11" t="s">
         <v>51</v>
       </c>
@@ -1437,25 +1435,27 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
       </c>
-      <c r="K11"/>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -1567,10 +1567,10 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" t="s">
+      <c r="E13"/>
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -1610,22 +1610,22 @@
       <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>52</v>
       </c>
+      <c r="H14"/>
       <c r="I14" t="s">
         <v>52</v>
       </c>
-      <c r="J14"/>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="P14" t="s">
-        <v>52</v>
-      </c>
+      <c r="P14"/>
       <c r="Q14" t="s">
         <v>52</v>
       </c>
@@ -1661,22 +1661,22 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15"/>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15"/>
       <c r="I15" t="s">
         <v>7</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15" t="s">
-        <v>14</v>
-      </c>
+      <c r="P15"/>
       <c r="Q15" t="s">
         <v>15</v>
       </c>
@@ -1703,22 +1703,22 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" t="s">
+      <c r="H16"/>
+      <c r="I16" t="s">
         <v>60</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>63</v>
       </c>
-      <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" t="s">
+      <c r="N16"/>
+      <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
